--- a/branches/update-content/ValueSet-vs-patient-enrollment-type.xlsx
+++ b/branches/update-content/ValueSet-vs-patient-enrollment-type.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:04:23+00:00</t>
+    <t>2023-03-04T08:06:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
